--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Event number</t>
   </si>
@@ -43,58 +43,196 @@
     <t>Intermediate events</t>
   </si>
   <si>
-    <t>19.7768</t>
+    <t>16.5888</t>
   </si>
   <si>
-    <t>19.7266</t>
+    <t>16.5779</t>
   </si>
   <si>
-    <t>19.7267</t>
+    <t>16.5787</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>-2.4</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>-5260.76</t>
+  </si>
+  <si>
+    <t>16.9301</t>
+  </si>
+  <si>
+    <t>16.9190</t>
+  </si>
+  <si>
+    <t>16.9211</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>330.17</t>
+  </si>
+  <si>
+    <t>16.9199</t>
+  </si>
+  <si>
+    <t>16.9203</t>
+  </si>
+  <si>
+    <t>17.3914</t>
+  </si>
+  <si>
+    <t>17.3696</t>
+  </si>
+  <si>
+    <t>17.3813</t>
+  </si>
+  <si>
+    <t>11.65</t>
+  </si>
+  <si>
+    <t>-2.2</t>
+  </si>
+  <si>
+    <t>439.56</t>
+  </si>
+  <si>
+    <t>17.4841</t>
+  </si>
+  <si>
+    <t>17.4705</t>
+  </si>
+  <si>
+    <t>17.4739</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79.13</t>
+  </si>
+  <si>
+    <t>17.4738</t>
+  </si>
+  <si>
+    <t>18.1838</t>
+  </si>
+  <si>
+    <t>18.1735</t>
+  </si>
+  <si>
+    <t>18.1736</t>
   </si>
   <si>
     <t>0.15</t>
   </si>
   <si>
-    <t>-4.7</t>
+    <t>689.41</t>
   </si>
   <si>
-    <t>50.1</t>
+    <t>18.3493</t>
   </si>
   <si>
-    <t>653.51</t>
+    <t>18.3391</t>
   </si>
   <si>
-    <t>22.4090</t>
+    <t>18.3392</t>
   </si>
   <si>
-    <t>22.3589</t>
+    <t>0.13</t>
   </si>
   <si>
-    <t>0.07</t>
+    <t>2.1</t>
   </si>
   <si>
-    <t>-4.9</t>
+    <t>155.29</t>
   </si>
   <si>
-    <t>1818.17</t>
+    <t>18.9178</t>
   </si>
   <si>
-    <t>23.7628</t>
+    <t>18.9073</t>
   </si>
   <si>
-    <t>23.7125</t>
+    <t>18.9076</t>
   </si>
   <si>
-    <t>23.7127</t>
+    <t>0.32</t>
   </si>
   <si>
-    <t>0.19</t>
+    <t>-1.2</t>
   </si>
   <si>
-    <t>-7.0</t>
+    <t>558.00</t>
   </si>
   <si>
-    <t>598.59</t>
+    <t>20.6554</t>
+  </si>
+  <si>
+    <t>20.6429</t>
+  </si>
+  <si>
+    <t>20.6453</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1725.16</t>
+  </si>
+  <si>
+    <t>21.2301</t>
+  </si>
+  <si>
+    <t>21.2199</t>
+  </si>
+  <si>
+    <t>21.2200</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>564.44</t>
+  </si>
+  <si>
+    <t>21.8386</t>
+  </si>
+  <si>
+    <t>21.8239</t>
+  </si>
+  <si>
+    <t>21.8285</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>593.76</t>
   </si>
 </sst>
 </file>
@@ -490,14 +628,30 @@
       </c>
     </row>
     <row r="2" spans="1:99">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
@@ -595,29 +749,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
       <c r="L3" t="s"/>
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
@@ -708,14 +866,30 @@
       <c r="CU3" t="s"/>
     </row>
     <row r="4" spans="1:99">
-      <c r="A4" t="s"/>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
       <c r="K4" t="s"/>
@@ -813,28 +987,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
@@ -926,14 +1102,30 @@
       <c r="CU5" t="s"/>
     </row>
     <row r="6" spans="1:99">
-      <c r="A6" t="s"/>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
@@ -1031,25 +1223,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -1144,14 +1336,30 @@
       <c r="CU7" t="s"/>
     </row>
     <row r="8" spans="1:99">
-      <c r="A8" t="s"/>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
@@ -1245,14 +1453,30 @@
       <c r="CU8" t="s"/>
     </row>
     <row r="9" spans="1:99">
-      <c r="A9" t="s"/>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
@@ -1346,14 +1570,30 @@
       <c r="CU9" t="s"/>
     </row>
     <row r="10" spans="1:99">
-      <c r="A10" t="s"/>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
@@ -1447,14 +1687,30 @@
       <c r="CU10" t="s"/>
     </row>
     <row r="11" spans="1:99">
-      <c r="A11" t="s"/>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
